--- a/data/trans_bre/P24_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>6,54</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>5,08</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,57</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>13,74</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>144,96%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>86,55%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,3%</t>
+          <t>186,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>163,89%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>54,15%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>48,38%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>120,07%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 11,81</t>
+          <t>1,57; 17,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 12,64</t>
+          <t>1,89; 17,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 10,66</t>
+          <t>-0,49; 12,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 9,69</t>
+          <t>-0,19; 10,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 13,32</t>
+          <t>2,64; 25,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,95; 355,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 299,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 122,51</t>
+          <t>-4,35; 719,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 126,38</t>
+          <t>3,34; 550,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 143,66</t>
+          <t>-4,71; 147,49</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 133,72</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11,94; 348,85</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>126,14%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>52,9%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>61,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>85,69%</t>
+          <t>47,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>74,68%</t>
+          <t>74,84%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>86,6%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38,16%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,99</t>
+          <t>-1,8; 8,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 8,7</t>
+          <t>-4,13; 9,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,98</t>
+          <t>1,94; 9,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 10,6</t>
+          <t>2,7; 10,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 13,01</t>
+          <t>-4,43; 10,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,64; 242,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 138,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,12; 135,55</t>
+          <t>-28,5; 233,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,59; 170,03</t>
+          <t>-31,64; 158,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,24; 138,01</t>
+          <t>21,46; 155,51</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17,54; 161,9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-26,39; 106,86</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>51,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>149,84%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>62,98%</t>
+          <t>67,9%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>155,49%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>118,61%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 6,17</t>
+          <t>-4,72; 5,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 6,49</t>
+          <t>-1,14; 7,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 9,27</t>
+          <t>1,31; 9,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 11,56</t>
+          <t>4,25; 11,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 12,63</t>
+          <t>3,63; 14,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 159,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 132,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,51; 178,59</t>
+          <t>-50,94; 127,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,96; 319,92</t>
+          <t>-14,34; 178,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 178,88</t>
+          <t>12,93; 170,78</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>53,4; 338,94</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>36,2; 268,55</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>109,06%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>58,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>66,26%</t>
+          <t>152,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>44,07%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>65,91%</t>
+          <t>87,94%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>175,04%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,46</t>
+          <t>4,5; 9,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 7,43</t>
+          <t>-1,22; 7,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,84</t>
+          <t>1,64; 10,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,97</t>
+          <t>6,99; 17,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,17; 175,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 120,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,65; 105,71</t>
+          <t>79,85; 268,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,24; 141,71</t>
+          <t>-15,14; 139,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32,59; 113,86</t>
+          <t>12,67; 211,78</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>73,28; 333,12</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,44</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,09</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,8</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,67</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>107,09%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>55,99%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>72,79%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>90,19%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>99,76%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 7,5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 6,64</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 8,62</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 9,24</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 12,81</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>51,82; 178,36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,57; 105,96</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37,15; 115,64</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43,2; 145,03</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>44,05; 157,71</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
